--- a/Dataset/example/Lubang Buaya.xlsx
+++ b/Dataset/example/Lubang Buaya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Program\Skripsi\Dataset\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Program\Skripsi\Dataset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F3F9C-EF24-4661-B4A6-C75F503507D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC3180-8605-4014-90F8-D8798FC03317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,301 +49,301 @@
     <t>DKI4 Lubang Buaya</t>
   </si>
   <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022-01-02</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>2022-01-06</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>2022-01-08</t>
-  </si>
-  <si>
-    <t>2022-01-09</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-01-12</t>
-  </si>
-  <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>2022-01-15</t>
-  </si>
-  <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
-    <t>2022-01-17</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-01-19</t>
-  </si>
-  <si>
-    <t>2022-01-20</t>
-  </si>
-  <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
-    <t>2022-01-22</t>
-  </si>
-  <si>
-    <t>2022-01-23</t>
-  </si>
-  <si>
-    <t>2022-01-24</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-01-26</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>2022-01-29</t>
-  </si>
-  <si>
-    <t>2022-01-30</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-02-02</t>
-  </si>
-  <si>
-    <t>2022-02-03</t>
-  </si>
-  <si>
-    <t>2022-02-04</t>
-  </si>
-  <si>
-    <t>2022-02-05</t>
-  </si>
-  <si>
-    <t>2022-02-06</t>
-  </si>
-  <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-09</t>
-  </si>
-  <si>
-    <t>2022-02-10</t>
-  </si>
-  <si>
-    <t>2022-02-11</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
-    <t>2022-02-13</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
-    <t>2022-02-16</t>
-  </si>
-  <si>
-    <t>2022-02-17</t>
-  </si>
-  <si>
-    <t>2022-02-18</t>
-  </si>
-  <si>
-    <t>2022-02-19</t>
-  </si>
-  <si>
-    <t>2022-02-20</t>
-  </si>
-  <si>
-    <t>2022-02-21</t>
-  </si>
-  <si>
-    <t>2022-02-22</t>
-  </si>
-  <si>
-    <t>2022-02-23</t>
-  </si>
-  <si>
-    <t>2022-02-24</t>
-  </si>
-  <si>
-    <t>2022-02-25</t>
-  </si>
-  <si>
-    <t>2022-02-26</t>
-  </si>
-  <si>
-    <t>2022-02-27</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-03-02</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>2022-03-06</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-03-08</t>
-  </si>
-  <si>
-    <t>2022-03-09</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>2022-03-11</t>
-  </si>
-  <si>
-    <t>2022-03-12</t>
-  </si>
-  <si>
-    <t>2022-03-13</t>
-  </si>
-  <si>
-    <t>2022-03-14</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
-    <t>2022-03-17</t>
-  </si>
-  <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
-    <t>2022-03-19</t>
-  </si>
-  <si>
-    <t>2022-03-20</t>
-  </si>
-  <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>2022-03-22</t>
-  </si>
-  <si>
-    <t>2022-03-23</t>
-  </si>
-  <si>
-    <t>2022-03-24</t>
-  </si>
-  <si>
-    <t>2022-03-25</t>
-  </si>
-  <si>
-    <t>2022-03-26</t>
-  </si>
-  <si>
-    <t>2022-03-27</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>2022-03-29</t>
-  </si>
-  <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-04-02</t>
-  </si>
-  <si>
-    <t>2022-04-03</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
-    <t>2022-04-06</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
-    <t>2022-04-08</t>
-  </si>
-  <si>
-    <t>2022-04-09</t>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
   </si>
 </sst>
 </file>
@@ -708,11 +708,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:H1399"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -747,6 +750,24 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -755,6 +776,24 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -803,6 +842,24 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -811,6 +868,24 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -819,6 +894,24 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -827,6 +920,24 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -836,22 +947,22 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,22 +973,22 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,22 +999,22 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,22 +1025,22 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -939,6 +1050,24 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -948,22 +1077,22 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,22 +1103,22 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,22 +1129,22 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,22 +1155,22 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,22 +1181,22 @@
         <v>8</v>
       </c>
       <c r="C22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>54</v>
-      </c>
-      <c r="E22">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
       <c r="H22">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,22 +1207,22 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,22 +1233,22 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>11</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,22 +1259,22 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,22 +1285,22 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,22 +1311,22 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,22 +1337,22 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
         <v>14</v>
       </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
       <c r="H28">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,22 +1363,22 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E29">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,24 +1388,6 @@
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
-        <v>69</v>
-      </c>
-      <c r="D30">
-        <v>124</v>
-      </c>
-      <c r="E30">
-        <v>36</v>
-      </c>
-      <c r="F30">
-        <v>21</v>
-      </c>
-      <c r="G30">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1285,24 +1396,6 @@
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>145</v>
-      </c>
-      <c r="E31">
-        <v>37</v>
-      </c>
-      <c r="F31">
-        <v>23</v>
-      </c>
-      <c r="G31">
-        <v>24</v>
-      </c>
-      <c r="H31">
-        <v>25</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1311,24 +1404,6 @@
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>81</v>
-      </c>
-      <c r="D32">
-        <v>149</v>
-      </c>
-      <c r="E32">
-        <v>37</v>
-      </c>
-      <c r="F32">
-        <v>24</v>
-      </c>
-      <c r="G32">
-        <v>22</v>
-      </c>
-      <c r="H32">
-        <v>25</v>
-      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1337,24 +1412,6 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <v>102</v>
-      </c>
-      <c r="E33">
-        <v>36</v>
-      </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="H33">
-        <v>16</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1364,22 +1421,22 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,22 +1447,22 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1416,22 +1473,22 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,22 +1499,22 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E37">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G37">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,22 +1525,22 @@
         <v>8</v>
       </c>
       <c r="C38">
+        <v>89</v>
+      </c>
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
         <v>29</v>
       </c>
-      <c r="D38">
-        <v>52</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>9</v>
-      </c>
       <c r="H38">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,22 +1551,22 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,24 +1576,6 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40">
-        <v>65</v>
-      </c>
-      <c r="D40">
-        <v>121</v>
-      </c>
-      <c r="E40">
-        <v>36</v>
-      </c>
-      <c r="F40">
-        <v>19</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>19</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1546,22 +1585,22 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,22 +1611,22 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,22 +1637,22 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D43">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1624,22 +1663,22 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E44">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1650,22 +1689,22 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
         <v>36</v>
       </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-      <c r="G45">
-        <v>13</v>
-      </c>
       <c r="H45">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1676,22 +1715,22 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="E46">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1702,22 +1741,22 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D47">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G47">
+        <v>28</v>
+      </c>
+      <c r="H47">
         <v>19</v>
-      </c>
-      <c r="H47">
-        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1728,22 +1767,22 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E48">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>24</v>
       </c>
       <c r="H48">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,22 +1793,22 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D49">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,6 +1818,24 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
+      <c r="C50">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>65</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>31</v>
+      </c>
+      <c r="H50">
+        <v>21</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1787,6 +1844,24 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
+      <c r="C51">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>21</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1795,6 +1870,24 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
+      <c r="C52">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>56</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1820,22 +1913,22 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E55">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,22 +1939,22 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D56">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,22 +1965,22 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1898,22 +1991,22 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1924,22 +2017,22 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,22 +2043,22 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D60">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E60">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,22 +2069,22 @@
         <v>8</v>
       </c>
       <c r="C61">
+        <v>48</v>
+      </c>
+      <c r="D61">
+        <v>42</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61">
         <v>21</v>
       </c>
-      <c r="D61">
-        <v>45</v>
-      </c>
-      <c r="E61">
-        <v>36</v>
-      </c>
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <v>5</v>
-      </c>
       <c r="H61">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,22 +2095,22 @@
         <v>8</v>
       </c>
       <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
         <v>21</v>
       </c>
-      <c r="D62">
-        <v>45</v>
-      </c>
-      <c r="E62">
-        <v>36</v>
-      </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
       <c r="H62">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,22 +2121,22 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2054,22 +2147,22 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D64">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E64">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,22 +2173,22 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E65">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,24 +2198,6 @@
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66">
-        <v>60</v>
-      </c>
-      <c r="D66">
-        <v>113</v>
-      </c>
-      <c r="E66">
-        <v>36</v>
-      </c>
-      <c r="F66">
-        <v>17</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>8</v>
-      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -2131,24 +2206,6 @@
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C67">
-        <v>35</v>
-      </c>
-      <c r="D67">
-        <v>57</v>
-      </c>
-      <c r="E67">
-        <v>36</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67">
-        <v>11</v>
-      </c>
-      <c r="H67">
-        <v>8</v>
-      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -2158,22 +2215,22 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68">
         <v>13</v>
       </c>
-      <c r="G68">
-        <v>21</v>
-      </c>
       <c r="H68">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,22 +2241,22 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D69">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2210,22 +2267,22 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G70">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,22 +2293,22 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D71">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="E71">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G71">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,24 +2318,6 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72">
-        <v>56</v>
-      </c>
-      <c r="D72">
-        <v>86</v>
-      </c>
-      <c r="E72">
-        <v>38</v>
-      </c>
-      <c r="F72">
-        <v>16</v>
-      </c>
-      <c r="G72">
-        <v>18</v>
-      </c>
-      <c r="H72">
-        <v>17</v>
-      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2287,24 +2326,6 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73">
-        <v>35</v>
-      </c>
-      <c r="D73">
-        <v>74</v>
-      </c>
-      <c r="E73">
-        <v>37</v>
-      </c>
-      <c r="F73">
-        <v>18</v>
-      </c>
-      <c r="G73">
-        <v>9</v>
-      </c>
-      <c r="H73">
-        <v>9</v>
-      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2313,24 +2334,6 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74">
-        <v>62</v>
-      </c>
-      <c r="D74">
-        <v>114</v>
-      </c>
-      <c r="E74">
-        <v>37</v>
-      </c>
-      <c r="F74">
-        <v>18</v>
-      </c>
-      <c r="G74">
-        <v>21</v>
-      </c>
-      <c r="H74">
-        <v>14</v>
-      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2339,24 +2342,6 @@
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75">
-        <v>57</v>
-      </c>
-      <c r="D75">
-        <v>97</v>
-      </c>
-      <c r="E75">
-        <v>40</v>
-      </c>
-      <c r="F75">
-        <v>14</v>
-      </c>
-      <c r="G75">
-        <v>21</v>
-      </c>
-      <c r="H75">
-        <v>20</v>
-      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2365,24 +2350,6 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76">
-        <v>52</v>
-      </c>
-      <c r="D76">
-        <v>95</v>
-      </c>
-      <c r="E76">
-        <v>40</v>
-      </c>
-      <c r="F76">
-        <v>19</v>
-      </c>
-      <c r="G76">
-        <v>18</v>
-      </c>
-      <c r="H76">
-        <v>15</v>
-      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -2391,24 +2358,6 @@
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77">
-        <v>78</v>
-      </c>
-      <c r="D77">
-        <v>144</v>
-      </c>
-      <c r="E77">
-        <v>38</v>
-      </c>
-      <c r="F77">
-        <v>20</v>
-      </c>
-      <c r="G77">
-        <v>19</v>
-      </c>
-      <c r="H77">
-        <v>29</v>
-      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -2418,22 +2367,22 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D78">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E78">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F78">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G78">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H78">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,16 +2396,16 @@
         <v>65</v>
       </c>
       <c r="D79">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E79">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H79">
         <v>18</v>
@@ -2470,22 +2419,22 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D80">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E80">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2496,22 +2445,22 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D81">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,22 +2471,22 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D82">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E82">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2548,22 +2497,22 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E83">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,22 +2523,22 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D84">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E84">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,24 +2548,6 @@
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85">
-        <v>93</v>
-      </c>
-      <c r="D85">
-        <v>87</v>
-      </c>
-      <c r="E85">
-        <v>43</v>
-      </c>
-      <c r="F85">
-        <v>16</v>
-      </c>
-      <c r="G85">
-        <v>23</v>
-      </c>
-      <c r="H85">
-        <v>20</v>
-      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2626,22 +2557,22 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D86">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E86">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F86">
         <v>13</v>
       </c>
       <c r="G86">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2651,6 +2582,24 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
+      <c r="C87">
+        <v>59</v>
+      </c>
+      <c r="D87">
+        <v>49</v>
+      </c>
+      <c r="E87">
+        <v>19</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <v>32</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -2660,22 +2609,22 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E88">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88">
+        <v>28</v>
+      </c>
+      <c r="H88">
         <v>17</v>
-      </c>
-      <c r="H88">
-        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,22 +2635,22 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D89">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F89">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G89">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,22 +2661,22 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D90">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E90">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F90">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,22 +2687,22 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D91">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F91">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H91">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2764,22 +2713,22 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D92">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F92">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H92">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2790,22 +2739,22 @@
         <v>8</v>
       </c>
       <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
         <v>61</v>
       </c>
-      <c r="D93">
-        <v>108</v>
-      </c>
       <c r="E93">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H93">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,22 +2765,22 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D94">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E94">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2842,22 +2791,22 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D95">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G95">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -2867,127 +2816,37 @@
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96">
-        <v>56</v>
-      </c>
-      <c r="D96">
-        <v>100</v>
-      </c>
-      <c r="E96">
-        <v>41</v>
-      </c>
-      <c r="F96">
-        <v>12</v>
-      </c>
-      <c r="G96">
-        <v>19</v>
-      </c>
-      <c r="H96">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97">
-        <v>57</v>
-      </c>
-      <c r="D97">
-        <v>99</v>
-      </c>
-      <c r="E97">
-        <v>40</v>
-      </c>
-      <c r="F97">
-        <v>15</v>
-      </c>
-      <c r="G97">
-        <v>17</v>
-      </c>
-      <c r="H97">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
-        <v>56</v>
-      </c>
-      <c r="D98">
-        <v>100</v>
-      </c>
-      <c r="E98">
-        <v>40</v>
-      </c>
-      <c r="F98">
-        <v>15</v>
-      </c>
-      <c r="G98">
-        <v>18</v>
-      </c>
-      <c r="H98">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99">
-        <v>53</v>
-      </c>
-      <c r="D99">
-        <v>85</v>
-      </c>
-      <c r="E99">
-        <v>40</v>
-      </c>
-      <c r="F99">
-        <v>13</v>
-      </c>
-      <c r="G99">
-        <v>18</v>
-      </c>
-      <c r="H99">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
-      </c>
-      <c r="C100">
-        <v>55</v>
-      </c>
-      <c r="D100">
-        <v>117</v>
-      </c>
-      <c r="E100">
-        <v>41</v>
-      </c>
-      <c r="F100">
-        <v>14</v>
-      </c>
-      <c r="G100">
-        <v>26</v>
-      </c>
-      <c r="H100">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
